--- a/C_Compiler_CSharp/C_Compiler_CSharp/Fardplan.xlsx
+++ b/C_Compiler_CSharp/C_Compiler_CSharp/Fardplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\A A A C_Compiler_Assembler - CSharp\C_Compiler_CSharp\C_Compiler_CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99371972-36D0-43F1-8326-961DEF7B1323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2525FB-8194-4342-B6E2-87FF6E2E7C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E54B39D-B630-4728-8EC2-54F9E864141D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nattåg Strängnäs - Abisko</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Pårte - Kvikkjock, Nattåg Kvikkjokk - Strängnäs</t>
+  </si>
+  <si>
+    <t>Vilodag i Aktes</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55488831-A136-4F86-B998-3BBB8483A54E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
@@ -451,7 +454,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>44014</v>
+        <v>44010</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -460,7 +463,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>A1+1</f>
-        <v>44015</v>
+        <v>44011</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -469,7 +472,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A14" si="0">A2+1</f>
-        <v>44016</v>
+        <v>44012</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -478,7 +481,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>44017</v>
+        <v>44013</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -487,7 +490,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>44018</v>
+        <v>44014</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -496,7 +499,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>44019</v>
+        <v>44015</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -505,7 +508,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>44020</v>
+        <v>44016</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -514,7 +517,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>44021</v>
+        <v>44017</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -523,7 +526,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>44022</v>
+        <v>44018</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -532,7 +535,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>44023</v>
+        <v>44019</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -541,7 +544,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>44024</v>
+        <v>44020</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -550,18 +553,27 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>44025</v>
+        <v>44021</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>44026</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>44022</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>44023</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
